--- a/biology/Zoologie/Cystidicolidae/Cystidicolidae.xlsx
+++ b/biology/Zoologie/Cystidicolidae/Cystidicolidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Cystidicolidae sont une famille de nématodes, tous parasites de poissons au stade adulte. La famille a été créée par Scriabine en 1946. Comme les autres Nématodes, les Cystidicolidae ont un corps allongé, de section cylindrique, revêtu par une cuticule. Les sexes sont séparés mais certaines espèces, ou même genres, ont été décrits à partir de quelques individus seulement, appartenant à un seul des deux sexes[1],[2],[3],[4],[5]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Cystidicolidae sont une famille de nématodes, tous parasites de poissons au stade adulte. La famille a été créée par Scriabine en 1946. Comme les autres Nématodes, les Cystidicolidae ont un corps allongé, de section cylindrique, revêtu par une cuticule. Les sexes sont séparés mais certaines espèces, ou même genres, ont été décrits à partir de quelques individus seulement, appartenant à un seul des deux sexes. 
 </t>
         </is>
       </c>
@@ -511,31 +523,33 @@
           <t>Systématiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon WoRMS, la famille Cystidicolidae comprend (en 2019) les genres suivants[6] :
-Ascarophis Van Beneden, 1871 [7]
-Ascarophisnema Moravec &amp; Justine, 2010 [8]
-Caballeronema Margolis, 1977 [9]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon WoRMS, la famille Cystidicolidae comprend (en 2019) les genres suivants :
+Ascarophis Van Beneden, 1871 
+Ascarophisnema Moravec &amp; Justine, 2010 
+Caballeronema Margolis, 1977 
 Capillospirura Skrjabin, 1924
-Collarinema Sey, 1970 [10]
-Comephoronema Layman, 1933 [11]
-Cristitectus Petter, 1970 [12]
-Ctenascarophis Mamaev, 1968 [13]
+Collarinema Sey, 1970 
+Comephoronema Layman, 1933 
+Cristitectus Petter, 1970 
+Ctenascarophis Mamaev, 1968 
 Cystidicola Fisher, 1798
-Cystidicoloides Skinker, 1931 [14]
-Metabronema Yorke &amp; Maplestone, 1926[15]
-Metabronemoides Moravec &amp; Justine, 2010 [8]
-Moravecnema Justine, Cassone &amp; Petter, 2002 [16]
-Neoascarophis Machida, 1976 [17]
-Parascarophis Campana-Rouget, 1955 [3]
-Prospinitectus Petter, 1979 [18]
-Pseudascarophis Ko, Margolis &amp; Machida, 1985 [1]
+Cystidicoloides Skinker, 1931 
+Metabronema Yorke &amp; Maplestone, 1926
+Metabronemoides Moravec &amp; Justine, 2010 
+Moravecnema Justine, Cassone &amp; Petter, 2002 
+Neoascarophis Machida, 1976 
+Parascarophis Campana-Rouget, 1955 
+Prospinitectus Petter, 1979 
+Pseudascarophis Ko, Margolis &amp; Machida, 1985 
 Pseudoproleptus Khera, 1953
-Salmonema Moravec, Santos &amp; Brasil-Sato, 2008 [19]
+Salmonema Moravec, Santos &amp; Brasil-Sato, 2008 
 Salvelinema Trofimenko, 1962
-Spinitectoides Petter, 1969 [4]
-Spinitectus Fourment, 1883 [20]</t>
+Spinitectoides Petter, 1969 
+Spinitectus Fourment, 1883 </t>
         </is>
       </c>
     </row>
